--- a/UMAWorldConf/配置/建筑生成.xlsx
+++ b/UMAWorldConf/配置/建筑生成.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="12770" windowHeight="5720"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="12770" windowHeight="5720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#SchoolBuild" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="#SchoolHouse" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -92,6 +92,42 @@
   </si>
   <si>
     <t>maxVertexCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaLong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="A1:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -853,14 +889,279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/UMAWorldConf/配置/建筑生成.xlsx
+++ b/UMAWorldConf/配置/建筑生成.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="12770" windowHeight="5720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="12770" windowHeight="5720"/>
   </bookViews>
   <sheets>
     <sheet name="#SchoolBuild" sheetId="1" r:id="rId1"/>
     <sheet name="#SchoolHouse" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="#SchoolFloor" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -128,6 +128,95 @@
   </si>
   <si>
     <t>预制件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗门地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗门房屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地宽度(cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地长度cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地高度cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外殿高度[最小，最大]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100|-100</t>
+  </si>
+  <si>
+    <t>100|100</t>
+  </si>
+  <si>
+    <t>50|100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Floor/Stairs1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Floor/Ground_Brick1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上山转折数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turnCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>2|4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="A1:J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -566,9 +655,11 @@
     <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5">
+    <row r="1" spans="1:12" ht="14.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -593,8 +684,14 @@
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.5">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -619,8 +716,15 @@
       <c r="H2" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -645,16 +749,22 @@
       <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.5">
+      <c r="I3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -671,36 +781,20 @@
       <c r="H4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.5">
-      <c r="A5" s="1">
+      <c r="I4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="14.5">
+      <c r="C5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.5">
+      <c r="A6" s="1">
         <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-      <c r="F5">
-        <v>300</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.5">
-      <c r="A6" s="1">
-        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -723,10 +817,16 @@
       <c r="H6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.5">
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.5">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -737,22 +837,28 @@
       <c r="D7" s="1">
         <v>1000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>200</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>300</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.5">
+      <c r="I7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.5">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -775,10 +881,16 @@
       <c r="H8" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.5">
+      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.5">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -801,10 +913,16 @@
       <c r="H9" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.5">
+      <c r="I9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.5">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -827,10 +945,16 @@
       <c r="H10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.5">
+      <c r="I10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.5">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -853,10 +977,16 @@
       <c r="H11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.5">
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.5">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -878,6 +1008,44 @@
       </c>
       <c r="H12" s="1">
         <v>9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.5">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1">
+        <v>300</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -889,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -904,7 +1072,7 @@
     <col min="5" max="5" width="45.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5">
+    <row r="1" spans="1:10" ht="14.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -922,7 +1090,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10" ht="14.5">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -938,9 +1106,11 @@
       <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -958,7 +1128,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -971,10 +1141,12 @@
       <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -987,10 +1159,12 @@
       <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1003,10 +1177,12 @@
       <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1019,10 +1195,12 @@
       <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1035,10 +1213,12 @@
       <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1051,10 +1231,12 @@
       <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1067,10 +1249,12 @@
       <c r="D10" s="1">
         <v>10</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1083,10 +1267,12 @@
       <c r="D11" s="1">
         <v>10</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1099,10 +1285,12 @@
       <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1110,7 +1298,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1118,7 +1306,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1126,7 +1314,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1167,13 +1355,146 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="14.5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.5">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="Q2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" ht="14.5">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>400</v>
+      </c>
+      <c r="C4" s="1">
+        <v>400</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.5">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>237</v>
+      </c>
+      <c r="C5" s="1">
+        <v>162</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UMAWorldConf/配置/建筑生成.xlsx
+++ b/UMAWorldConf/配置/建筑生成.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -151,11 +151,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
+    <t>楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Floor/Stairs1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Floor/Ground_Brick1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上山转折数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turnCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>2|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainGate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -163,60 +222,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼梯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外殿高度[最小，最大]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-100|-100</t>
-  </si>
-  <si>
-    <t>100|100</t>
-  </si>
-  <si>
-    <t>50|100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/Floor/Stairs1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/Floor/Ground_Brick1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上山转折数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turnCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>2|4</t>
+    <t>Prefab/Build/House/MainGate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Floor/Floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -656,10 +681,9 @@
     <col min="5" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.58203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5">
+    <row r="1" spans="1:13" ht="14.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -685,13 +709,22 @@
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.5">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -717,14 +750,22 @@
         <v>19</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -750,21 +791,30 @@
         <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.5">
+        <v>51</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -782,17 +832,25 @@
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="14.5">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="14.5">
       <c r="C5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.5">
+    </row>
+    <row r="6" spans="1:13" ht="14.5">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -818,13 +876,22 @@
         <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.5">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.5">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -850,13 +917,22 @@
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.5">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.5">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -882,13 +958,22 @@
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.5">
+        <v>41</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.5">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -914,13 +999,22 @@
         <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.5">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.5">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -946,13 +1040,22 @@
         <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="14.5">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.5">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -978,13 +1081,22 @@
         <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.5">
+        <v>41</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.5">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -1010,13 +1122,22 @@
         <v>9</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.5">
+        <v>41</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.5">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1042,10 +1163,19 @@
         <v>9</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1160,7 +1290,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1178,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1196,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1214,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1232,7 +1362,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1250,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1268,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1286,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1355,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1366,11 +1496,10 @@
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.5">
+    <row r="1" spans="1:16" ht="14.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1383,17 +1512,14 @@
       <c r="D1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.5">
+    </row>
+    <row r="2" spans="1:16" ht="14.5">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1406,91 +1532,119 @@
       <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="Q2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:16">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" ht="14.5">
+    </row>
+    <row r="4" spans="1:16" ht="14.5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="2" t="s">
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="14.5">
+    </row>
+    <row r="5" spans="1:16" ht="14.5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>237</v>
+        <v>2.37</v>
       </c>
       <c r="C5" s="1">
-        <v>162</v>
+        <v>1.55</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
-      </c>
-      <c r="E5" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.5">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="B6">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="C6">
+        <v>10.67</v>
+      </c>
+      <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.5">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30.85</v>
+      </c>
+      <c r="C7">
+        <v>6.5</v>
+      </c>
+      <c r="D7">
+        <v>17.8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/UMAWorldConf/配置/建筑生成.xlsx
+++ b/UMAWorldConf/配置/建筑生成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="12770" windowHeight="5720"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="12770" windowHeight="5720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#SchoolBuild" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Build/House/MainGate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Build/Floor/Floor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +238,18 @@
   </si>
   <si>
     <t>0|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolMainGate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolBookshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏经阁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -811,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -1485,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1547,13 +1555,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>27</v>
@@ -1620,7 +1628,7 @@
         <v>0.9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>44</v>
@@ -1640,10 +1648,23 @@
         <v>17.8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="14.5">
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/UMAWorldConf/配置/建筑生成.xlsx
+++ b/UMAWorldConf/配置/建筑生成.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Build/Floor/Ground_Brick1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上山转折数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,54 +198,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>stairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainGate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolBookshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏经阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弟子房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolMainGate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolDiscipleHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolTaskBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Decorate/Flowerbed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200|201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Floor/SchoolFloor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Floor/SchoolStairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stairs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainGate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/Floor/Floor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/House/SchoolMainGate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/House/SchoolBookshop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏经阁</t>
+    <t>Prefab/Build/Floor/SchoolTile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallCorner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallGate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/WallSchoolWallGate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Wall/SchoolWall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Wall/SchoolWallCorner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -688,10 +752,16 @@
     <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.5">
+    <row r="1" spans="1:16" ht="14.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -717,22 +787,31 @@
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>48</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="28">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -758,22 +837,31 @@
         <v>19</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -799,30 +887,39 @@
         <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="14.5">
+        <v>49</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -840,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -854,11 +951,20 @@
       <c r="M4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="14.5">
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.5">
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="14.5">
+    <row r="6" spans="1:16" ht="14.5">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -884,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -898,8 +1004,17 @@
       <c r="M6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.5">
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.5">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -925,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -939,8 +1054,17 @@
       <c r="M7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.5">
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>5</v>
+      </c>
+      <c r="P7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.5">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -966,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -980,8 +1104,17 @@
       <c r="M8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.5">
+      <c r="N8" s="1">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>5</v>
+      </c>
+      <c r="P8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.5">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1007,7 +1140,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1021,8 +1154,17 @@
       <c r="M9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="14.5">
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.5">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1048,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1062,8 +1204,17 @@
       <c r="M10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.5">
+      <c r="N10" s="1">
+        <v>4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.5">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1089,7 +1240,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1103,8 +1254,17 @@
       <c r="M11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="14.5">
+      <c r="N11" s="1">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>5</v>
+      </c>
+      <c r="P11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.5">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -1130,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1144,8 +1304,17 @@
       <c r="M12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="14.5">
+      <c r="N12" s="1">
+        <v>4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.5">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1171,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1184,6 +1353,15 @@
       </c>
       <c r="M13" s="1">
         <v>3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1493,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:G22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1504,7 +1682,7 @@
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.5">
@@ -1555,13 +1733,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>27</v>
@@ -1575,63 +1753,61 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>0.06</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="14.5">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>2.37</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="D5" s="1">
-        <v>0.92</v>
+        <v>1.85</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="14.5">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>9.9499999999999993</v>
+        <v>10.48</v>
       </c>
       <c r="C6">
-        <v>10.67</v>
-      </c>
-      <c r="D6">
-        <v>0.9</v>
+        <v>16.079999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.5">
@@ -1648,23 +1824,143 @@
         <v>17.8</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="14.5">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="14.5">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="14.5">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1"/>
+    <row r="12" spans="1:16" s="1" customFormat="1"/>
+    <row r="13" spans="1:16" s="1" customFormat="1"/>
+    <row r="14" spans="1:16" s="1" customFormat="1"/>
+    <row r="15" spans="1:16" s="1" customFormat="1"/>
+    <row r="16" spans="1:16" s="1" customFormat="1"/>
+    <row r="17" spans="1:8" s="1" customFormat="1"/>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="14.5">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="14.5">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="14.5">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.5">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" ht="14.5">
-      <c r="E21" s="1" t="s">
+      <c r="F22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.5">
+      <c r="E23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.5">
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.5">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="35" spans="5:6" ht="14.5">
+      <c r="E35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/UMAWorldConf/配置/建筑生成.xlsx
+++ b/UMAWorldConf/配置/建筑生成.xlsx
@@ -305,15 +305,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Build/WallSchoolWallGate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Build/Wall/SchoolWall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Prefab/Build/Wall/SchoolWallCorner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Wall/SchoolWallGate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +811,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28">
+    <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +1674,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1844,7 +1844,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>63</v>
@@ -1864,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>64</v>
@@ -1884,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>65</v>

--- a/UMAWorldConf/配置/建筑生成.xlsx
+++ b/UMAWorldConf/配置/建筑生成.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="12770" windowHeight="5720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="12770" windowHeight="5720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#SchoolBuild" sheetId="1" r:id="rId1"/>
-    <sheet name="#SchoolHouse" sheetId="2" r:id="rId2"/>
-    <sheet name="#SchoolFloor" sheetId="3" r:id="rId3"/>
+    <sheet name="#SchoolFloor" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -107,18 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>占地宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占地长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占地高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宗门房屋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>占地宽度(cm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Build/Floor/Stairs1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,6 +293,65 @@
   </si>
   <si>
     <t>Prefab/Build/Wall/SchoolWallGate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室：坐北朝南</t>
+  </si>
+  <si>
+    <t>储藏室：坐南朝北</t>
+  </si>
+  <si>
+    <t>娱乐室：坐西朝东</t>
+  </si>
+  <si>
+    <t>餐厅：坐东朝西</t>
+  </si>
+  <si>
+    <t>门前有水，或者依山而建都会使房间的风水变好。建房间时应当对此适当注意。</t>
+  </si>
+  <si>
+    <t>外门弟子房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外门弟子房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Tree/SchoolOutTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolOutHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外门树木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Decorate/Flowerbed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowerbed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +414,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -416,7 +460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -441,6 +485,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差 2" xfId="3"/>
@@ -738,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -759,9 +807,11 @@
     <col min="13" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.5">
+    <row r="1" spans="1:19" ht="14.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -787,31 +837,40 @@
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="28">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -837,31 +896,40 @@
         <v>19</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -887,19 +955,19 @@
         <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>11</v>
@@ -910,16 +978,25 @@
       <c r="P3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.5">
+      <c r="Q3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="14.5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -937,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -960,11 +1037,20 @@
       <c r="P4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.5">
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="14.5">
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="14.5">
+    <row r="6" spans="1:19" ht="14.5">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -990,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1013,8 +1099,11 @@
       <c r="P6" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="14.5">
+      <c r="Q6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="14.5">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1040,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1063,8 +1152,11 @@
       <c r="P7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="14.5">
+      <c r="Q7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="14.5">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1090,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1113,8 +1205,11 @@
       <c r="P8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="14.5">
+      <c r="Q8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="14.5">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1140,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1163,8 +1258,11 @@
       <c r="P9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="14.5">
+      <c r="Q9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="14.5">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1190,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1213,8 +1311,11 @@
       <c r="P10" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="14.5">
+      <c r="Q10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="14.5">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1240,7 +1341,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1263,8 +1364,11 @@
       <c r="P11" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="14.5">
+      <c r="Q11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="14.5">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -1290,7 +1394,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1313,8 +1417,11 @@
       <c r="P12" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="14.5">
+      <c r="Q12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="14.5">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1340,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1363,6 +1470,12 @@
       <c r="P13" s="1">
         <v>6</v>
       </c>
+      <c r="Q13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="Q14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1373,316 +1486,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="4.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="14.5">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.5">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.5" customWidth="1"/>
+    <col min="9" max="9" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.5">
@@ -1690,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1713,19 +1529,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="P2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1733,16 +1549,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1756,16 +1572,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D4" s="1">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.06</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1778,16 +1594,16 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C5" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="D5" s="1">
         <v>2.9</v>
       </c>
-      <c r="D5" s="1">
-        <v>1.85</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.5">
@@ -1797,17 +1613,17 @@
       <c r="B6">
         <v>10.48</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6">
         <v>16.079999999999998</v>
       </c>
-      <c r="D6" s="1">
-        <v>11</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.5">
@@ -1818,16 +1634,16 @@
         <v>30.85</v>
       </c>
       <c r="C7">
+        <v>17.8</v>
+      </c>
+      <c r="D7">
         <v>6.5</v>
       </c>
-      <c r="D7">
-        <v>17.8</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="14.5">
@@ -1838,16 +1654,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" ht="14.5">
@@ -1858,16 +1674,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="14.5">
@@ -1878,62 +1694,152 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1"/>
-    <row r="12" spans="1:16" s="1" customFormat="1"/>
-    <row r="13" spans="1:16" s="1" customFormat="1"/>
-    <row r="14" spans="1:16" s="1" customFormat="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="14.5">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="14.5">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="14.5">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="14.5">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="15" spans="1:16" s="1" customFormat="1"/>
     <row r="16" spans="1:16" s="1" customFormat="1"/>
-    <row r="17" spans="1:8" s="1" customFormat="1"/>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="14.5">
+    <row r="17" spans="1:9" s="1" customFormat="1"/>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="14.5">
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="14.5">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="14.5">
       <c r="F19" s="2"/>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="14.5">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="14.5">
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="14.5">
+    <row r="22" spans="1:9" ht="20">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20">
+      <c r="E23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20">
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.5">
-      <c r="E23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.5">
-      <c r="E24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.5">
+      <c r="I24" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20">
+      <c r="I25" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.5">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1941,26 +1847,31 @@
         <v>2.25</v>
       </c>
       <c r="C26" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="D26" s="1">
         <v>1.55</v>
       </c>
-      <c r="D26" s="1">
-        <v>0.92</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
+    <row r="27" spans="1:9" ht="20">
+      <c r="I27" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="35" spans="5:6" ht="14.5">
       <c r="E35" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/UMAWorldConf/配置/建筑生成.xlsx
+++ b/UMAWorldConf/配置/建筑生成.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Build/Floor/Stairs1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上山转折数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,15 +208,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弟子房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Build/House/SchoolMainGate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Build/House/SchoolDiscipleHouse</t>
+    <t>200|201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Floor/SchoolFloor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Floor/SchoolStairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Floor/SchoolTile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallCorner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallGate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Wall/SchoolWall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Wall/SchoolWallCorner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Wall/SchoolWallGate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室：坐北朝南</t>
+  </si>
+  <si>
+    <t>储藏室：坐南朝北</t>
+  </si>
+  <si>
+    <t>娱乐室：坐西朝东</t>
+  </si>
+  <si>
+    <t>餐厅：坐东朝西</t>
+  </si>
+  <si>
+    <t>门前有水，或者依山而建都会使房间的风水变好。建房间时应当对此适当注意。</t>
+  </si>
+  <si>
+    <t>外门弟子房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外门弟子房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Tree/SchoolOutTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolOutHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外门树木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Decorate/Flowerbed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowerbed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝仙楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚灵镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疗伤院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>议事大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务栏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,130 +363,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/Decorate/Flowerbed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200|201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙壁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙柱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/Floor/SchoolFloor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/Floor/SchoolStairs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/Floor/SchoolTile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wallCorner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wallGate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/Wall/SchoolWall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/Wall/SchoolWallCorner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/Wall/SchoolWallGate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧室：坐北朝南</t>
-  </si>
-  <si>
-    <t>储藏室：坐南朝北</t>
-  </si>
-  <si>
-    <t>娱乐室：坐西朝东</t>
-  </si>
-  <si>
-    <t>餐厅：坐东朝西</t>
-  </si>
-  <si>
-    <t>门前有水，或者依山而建都会使房间的风水变好。建房间时应当对此适当注意。</t>
-  </si>
-  <si>
-    <t>外门弟子房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outHouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外门弟子房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/Tree/SchoolOutTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/House/SchoolOutHouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外门树木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/Decorate/Flowerbed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flowerbed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏室</t>
+    <t>Prefab/Build/House/SchoolTransmit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +433,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +449,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39750358592486346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -489,6 +507,7 @@
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差 2" xfId="3"/>
@@ -837,40 +856,40 @@
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -896,37 +915,37 @@
         <v>19</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="N2" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -955,19 +974,19 @@
         <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>11</v>
@@ -993,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -1014,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1076,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1129,7 +1148,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1182,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1235,7 +1254,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1288,7 +1307,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1341,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1394,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1447,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1486,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1549,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>24</v>
@@ -1578,10 +1597,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1600,7 +1619,7 @@
         <v>2.9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>30</v>
@@ -1620,10 +1639,10 @@
         <v>16.079999999999998</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.5">
@@ -1640,10 +1659,10 @@
         <v>6.5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="14.5">
@@ -1660,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" ht="14.5">
@@ -1680,10 +1699,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="14.5">
@@ -1700,10 +1719,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="14.5">
@@ -1720,10 +1739,10 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" ht="14.5">
@@ -1740,10 +1759,10 @@
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" ht="14.5">
@@ -1760,15 +1779,15 @@
         <v>3.3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" ht="14.5">
       <c r="A14" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -1780,98 +1799,158 @@
         <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="14.5">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="2" t="s">
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="14.5">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="14.5">
+      <c r="F17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="14.5">
+      <c r="F18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="14.5">
+      <c r="F19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.5">
+      <c r="F20" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="14.5">
+      <c r="F21" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1"/>
-    <row r="16" spans="1:16" s="1" customFormat="1"/>
-    <row r="17" spans="1:9" s="1" customFormat="1"/>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="14.5">
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="14.5">
-      <c r="F19" s="2"/>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="14.5">
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="20">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I22" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20">
-      <c r="E23" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20">
-      <c r="E24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
       <c r="I24" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20">
       <c r="I25" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.5">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1.55</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="20">
       <c r="I27" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="5:6" ht="14.5">
       <c r="E35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>49</v>
+    </row>
+    <row r="37" spans="5:6" ht="14.5">
+      <c r="F37" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" ht="14.5">
+      <c r="F38" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" ht="14.5">
+      <c r="F39" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" ht="14.5">
+      <c r="F40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" ht="14.5">
+      <c r="F41" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" ht="14.5">
+      <c r="F42" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/UMAWorldConf/配置/建筑生成.xlsx
+++ b/UMAWorldConf/配置/建筑生成.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="#SchoolBuild" sheetId="1" r:id="rId1"/>
     <sheet name="#SchoolFloor" sheetId="3" r:id="rId2"/>
+    <sheet name="#SchoolColor" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="180">
   <si>
     <t>id</t>
   </si>
@@ -157,26 +158,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>楼梯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stairs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mainGate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Build/Floor/SchoolTile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,7 +304,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>储藏室</t>
+    <t>聚宝仙楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚灵镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疗伤院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>议事大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Wall/SchoolWall1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Wall/SchoolWallCorner1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Wall/SchoolWall2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Wall/SchoolWallCorner2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Wall/SchoolWall3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Wall/SchoolWallCorner3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1墙壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1墙柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙壁2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙柱2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙壁3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3墙柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fenceCorner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围栏柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -331,11 +396,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Prefab/Build/House/SchoolTransmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolBookShop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石狮子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Decorate/LionStatue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolMeeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolHospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚灵阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolUpLevelPlatform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内门弟子房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真传弟子房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Tree/SchoolBambooA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Tree/SchoolBambooB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/Tree/SchoolBambooC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolInHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolInTrueHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolDepot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolElderHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Build/House/SchoolBigElderHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长老房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大长老房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗主房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内门弟子房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真传弟子房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长老房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大长老房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗主房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>聚宝仙楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>聚灵镇</t>
+    <t>聚灵阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -355,15 +536,192 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/House/SchoolTaskBar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Build/House/SchoolTransmit</t>
+    <t>藏经阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27|28|29</t>
+  </si>
+  <si>
+    <t>27|28|29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inTrueHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elderHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigElderHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upLevelHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospiltalHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meetingHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depotHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookShopHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tilingX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tilingY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平铺X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平铺Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material/SchoolStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗门楼梯通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗门地板通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material/SchoolBigStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stairwayColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floorColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stairsStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯级数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transmitHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material/SchoolGround1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material/SchoolGround2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material/SchoolGround3</t>
+  </si>
+  <si>
+    <t>Material/SchoolGround4</t>
+  </si>
+  <si>
+    <t>宗门草地密叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗门草地落叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗门草地通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗门石头通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bamboo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +729,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,8 +790,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,12 +814,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39750358592486346"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -507,7 +866,8 @@
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差 2" xfId="3"/>
@@ -518,6 +878,1421 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>406400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10102850" y="8458200"/>
+          <a:ext cx="1568450" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10147300" y="9556750"/>
+          <a:ext cx="1250950" cy="1301750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9975850" y="10636250"/>
+          <a:ext cx="1314450" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>412750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9969500" y="4083050"/>
+          <a:ext cx="1047750" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11207750" y="4660900"/>
+          <a:ext cx="1155700" cy="1517650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11569700" y="7785100"/>
+          <a:ext cx="1022350" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>527050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12985750" y="8350250"/>
+          <a:ext cx="977900" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11207750" y="9715500"/>
+          <a:ext cx="577850" cy="1765300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1174750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11176000" y="3587750"/>
+          <a:ext cx="1123950" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1035" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12338050" y="4800600"/>
+          <a:ext cx="1174750" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1036" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11887200" y="5149850"/>
+          <a:ext cx="1530350" cy="1454150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1037" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9683750" y="15709900"/>
+          <a:ext cx="914400" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>501650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1039" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9245600" y="4502150"/>
+          <a:ext cx="1968500" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1040" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9391650" y="14046200"/>
+          <a:ext cx="3511550" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1041" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12795250" y="1828800"/>
+          <a:ext cx="4159250" cy="2349500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1042" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12566650" y="12090400"/>
+          <a:ext cx="3340100" cy="1911350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1043" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10750550" y="15284450"/>
+          <a:ext cx="4102100" cy="2146300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>527050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1044" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9645650" y="5619750"/>
+          <a:ext cx="927100" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1045" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8953500" y="11531600"/>
+          <a:ext cx="1911350" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>520700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1046" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15957550" y="11328400"/>
+          <a:ext cx="2559050" cy="1930400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>412750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1047" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10864850" y="12204700"/>
+          <a:ext cx="1549400" cy="1492250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1048" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8851900" y="15106650"/>
+          <a:ext cx="838200" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1049" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9607550" y="15792450"/>
+          <a:ext cx="889000" cy="908050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1050" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8794750" y="16325850"/>
+          <a:ext cx="819150" cy="806450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2527300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1051" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12674600" y="6235700"/>
+          <a:ext cx="2000250" cy="1517650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1052" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13423900" y="6661150"/>
+          <a:ext cx="1949450" cy="1422400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1053" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16033750" y="13538200"/>
+          <a:ext cx="1631950" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1054" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10375900" y="16325850"/>
+          <a:ext cx="3035300" cy="2355850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1055" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13436600" y="16173450"/>
+          <a:ext cx="3981450" cy="2940050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1056" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17443450" y="16148050"/>
+          <a:ext cx="2730500" cy="2635250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -820,17 +2595,33 @@
     <col min="5" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.5">
+    <row r="1" spans="1:37" ht="14.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -859,37 +2650,91 @@
         <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+        <v>66</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -918,37 +2763,91 @@
         <v>32</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>65</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -977,16 +2876,16 @@
         <v>33</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>11</v>
@@ -1006,16 +2905,70 @@
       <c r="S3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="14.5">
+      <c r="T3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="14.5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -1033,43 +2986,97 @@
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="J4" s="1">
+        <v>199</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>15</v>
+      </c>
+      <c r="R4">
+        <v>16</v>
+      </c>
+      <c r="S4" s="1">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>11</v>
+      </c>
+      <c r="U4">
+        <v>12</v>
+      </c>
+      <c r="V4">
+        <v>30</v>
+      </c>
+      <c r="W4">
+        <v>31</v>
+      </c>
+      <c r="X4">
+        <v>32</v>
+      </c>
+      <c r="Y4">
+        <v>19</v>
+      </c>
+      <c r="Z4">
+        <v>20</v>
+      </c>
+      <c r="AA4">
+        <v>21</v>
+      </c>
+      <c r="AB4">
+        <v>22</v>
+      </c>
+      <c r="AC4">
+        <v>23</v>
+      </c>
+      <c r="AD4">
+        <v>24</v>
+      </c>
+      <c r="AE4">
+        <v>25</v>
+      </c>
+      <c r="AF4">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="AI4">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="AJ4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
+      <c r="AK4">
         <v>6</v>
       </c>
-      <c r="Q4">
-        <v>7</v>
-      </c>
-      <c r="R4">
-        <v>8</v>
-      </c>
-      <c r="S4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="14.5">
+    </row>
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="14.5">
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="14.5">
+    <row r="6" spans="1:37" ht="14.5">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1098,31 +3105,91 @@
         <v>34</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>6</v>
+      </c>
+      <c r="O6" s="1">
+        <v>8</v>
+      </c>
+      <c r="P6" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>15</v>
+      </c>
+      <c r="R6" s="1">
+        <v>16</v>
+      </c>
+      <c r="S6" s="1">
+        <v>7</v>
+      </c>
+      <c r="T6" s="1">
+        <v>11</v>
+      </c>
+      <c r="U6" s="1">
+        <v>12</v>
+      </c>
+      <c r="V6" s="1">
+        <v>30</v>
+      </c>
+      <c r="W6" s="1">
+        <v>31</v>
+      </c>
+      <c r="X6" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1">
+      <c r="AI6" s="1">
         <v>2</v>
       </c>
-      <c r="M6" s="1">
+      <c r="AJ6" s="1">
         <v>3</v>
       </c>
-      <c r="N6" s="1">
-        <v>4</v>
-      </c>
-      <c r="O6" s="1">
-        <v>5</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="AK6" s="1">
         <v>6</v>
       </c>
-      <c r="Q6" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="14.5">
+    </row>
+    <row r="7" spans="1:37" ht="14.5">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1151,31 +3218,91 @@
         <v>34</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8</v>
+      </c>
+      <c r="P7" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>15</v>
+      </c>
+      <c r="R7" s="1">
+        <v>16</v>
+      </c>
+      <c r="S7" s="1">
+        <v>7</v>
+      </c>
+      <c r="T7" s="1">
+        <v>11</v>
+      </c>
+      <c r="U7" s="1">
+        <v>12</v>
+      </c>
+      <c r="V7" s="1">
+        <v>30</v>
+      </c>
+      <c r="W7" s="1">
+        <v>31</v>
+      </c>
+      <c r="X7" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH7" s="1">
         <v>1</v>
       </c>
-      <c r="L7" s="1">
+      <c r="AI7" s="1">
         <v>2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="AJ7" s="1">
         <v>3</v>
       </c>
-      <c r="N7" s="1">
-        <v>4</v>
-      </c>
-      <c r="O7" s="1">
-        <v>5</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="AK7" s="1">
         <v>6</v>
       </c>
-      <c r="Q7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="14.5">
+    </row>
+    <row r="8" spans="1:37" ht="14.5">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1204,31 +3331,91 @@
         <v>34</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
+        <v>8</v>
+      </c>
+      <c r="P8" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>15</v>
+      </c>
+      <c r="R8" s="1">
+        <v>16</v>
+      </c>
+      <c r="S8" s="1">
+        <v>7</v>
+      </c>
+      <c r="T8" s="1">
+        <v>11</v>
+      </c>
+      <c r="U8" s="1">
+        <v>12</v>
+      </c>
+      <c r="V8" s="1">
+        <v>30</v>
+      </c>
+      <c r="W8" s="1">
+        <v>31</v>
+      </c>
+      <c r="X8" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="1">
+      <c r="AI8" s="1">
         <v>2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="AJ8" s="1">
         <v>3</v>
       </c>
-      <c r="N8" s="1">
-        <v>4</v>
-      </c>
-      <c r="O8" s="1">
-        <v>5</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="AK8" s="1">
         <v>6</v>
       </c>
-      <c r="Q8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="14.5">
+    </row>
+    <row r="9" spans="1:37" ht="14.5">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1257,31 +3444,91 @@
         <v>34</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>6</v>
+      </c>
+      <c r="O9" s="1">
+        <v>8</v>
+      </c>
+      <c r="P9" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>15</v>
+      </c>
+      <c r="R9" s="1">
+        <v>16</v>
+      </c>
+      <c r="S9" s="1">
+        <v>7</v>
+      </c>
+      <c r="T9" s="1">
+        <v>11</v>
+      </c>
+      <c r="U9" s="1">
+        <v>12</v>
+      </c>
+      <c r="V9" s="1">
+        <v>30</v>
+      </c>
+      <c r="W9" s="1">
+        <v>31</v>
+      </c>
+      <c r="X9" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" s="1">
+      <c r="AI9" s="1">
         <v>2</v>
       </c>
-      <c r="M9" s="1">
+      <c r="AJ9" s="1">
         <v>3</v>
       </c>
-      <c r="N9" s="1">
-        <v>4</v>
-      </c>
-      <c r="O9" s="1">
-        <v>5</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="AK9" s="1">
         <v>6</v>
       </c>
-      <c r="Q9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="14.5">
+    </row>
+    <row r="10" spans="1:37" ht="14.5">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1310,31 +3557,91 @@
         <v>34</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1">
+        <v>8</v>
+      </c>
+      <c r="P10" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>15</v>
+      </c>
+      <c r="R10" s="1">
+        <v>16</v>
+      </c>
+      <c r="S10" s="1">
+        <v>7</v>
+      </c>
+      <c r="T10" s="1">
+        <v>11</v>
+      </c>
+      <c r="U10" s="1">
+        <v>12</v>
+      </c>
+      <c r="V10" s="1">
+        <v>30</v>
+      </c>
+      <c r="W10" s="1">
+        <v>31</v>
+      </c>
+      <c r="X10" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="1">
+      <c r="AI10" s="1">
         <v>2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="AJ10" s="1">
         <v>3</v>
       </c>
-      <c r="N10" s="1">
-        <v>4</v>
-      </c>
-      <c r="O10" s="1">
-        <v>5</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="AK10" s="1">
         <v>6</v>
       </c>
-      <c r="Q10" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="14.5">
+    </row>
+    <row r="11" spans="1:37" ht="14.5">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1363,31 +3670,91 @@
         <v>34</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="K11" s="1">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>6</v>
+      </c>
+      <c r="O11" s="1">
+        <v>8</v>
+      </c>
+      <c r="P11" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>15</v>
+      </c>
+      <c r="R11" s="1">
+        <v>16</v>
+      </c>
+      <c r="S11" s="1">
+        <v>7</v>
+      </c>
+      <c r="T11" s="1">
+        <v>11</v>
+      </c>
+      <c r="U11" s="1">
+        <v>12</v>
+      </c>
+      <c r="V11" s="1">
+        <v>30</v>
+      </c>
+      <c r="W11" s="1">
+        <v>31</v>
+      </c>
+      <c r="X11" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH11" s="1">
         <v>1</v>
       </c>
-      <c r="L11" s="1">
+      <c r="AI11" s="1">
         <v>2</v>
       </c>
-      <c r="M11" s="1">
+      <c r="AJ11" s="1">
         <v>3</v>
       </c>
-      <c r="N11" s="1">
-        <v>4</v>
-      </c>
-      <c r="O11" s="1">
-        <v>5</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="AK11" s="1">
         <v>6</v>
       </c>
-      <c r="Q11" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="14.5">
+    </row>
+    <row r="12" spans="1:37" ht="14.5">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -1416,31 +3783,91 @@
         <v>34</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="K12" s="1">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>6</v>
+      </c>
+      <c r="O12" s="1">
+        <v>8</v>
+      </c>
+      <c r="P12" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>15</v>
+      </c>
+      <c r="R12" s="1">
+        <v>16</v>
+      </c>
+      <c r="S12" s="1">
+        <v>7</v>
+      </c>
+      <c r="T12" s="1">
+        <v>11</v>
+      </c>
+      <c r="U12" s="1">
+        <v>12</v>
+      </c>
+      <c r="V12" s="1">
+        <v>30</v>
+      </c>
+      <c r="W12" s="1">
+        <v>31</v>
+      </c>
+      <c r="X12" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="1">
+      <c r="AI12" s="1">
         <v>2</v>
       </c>
-      <c r="M12" s="1">
+      <c r="AJ12" s="1">
         <v>3</v>
       </c>
-      <c r="N12" s="1">
-        <v>4</v>
-      </c>
-      <c r="O12" s="1">
-        <v>5</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="AK12" s="1">
         <v>6</v>
       </c>
-      <c r="Q12" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="14.5">
+    </row>
+    <row r="13" spans="1:37" ht="14.5">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1469,32 +3896,92 @@
         <v>34</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>6</v>
+      </c>
+      <c r="O13" s="1">
+        <v>8</v>
+      </c>
+      <c r="P13" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>15</v>
+      </c>
+      <c r="R13" s="1">
+        <v>16</v>
+      </c>
+      <c r="S13" s="1">
+        <v>7</v>
+      </c>
+      <c r="T13" s="1">
+        <v>11</v>
+      </c>
+      <c r="U13" s="1">
+        <v>12</v>
+      </c>
+      <c r="V13" s="1">
+        <v>30</v>
+      </c>
+      <c r="W13" s="1">
+        <v>31</v>
+      </c>
+      <c r="X13" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH13" s="1">
         <v>1</v>
       </c>
-      <c r="L13" s="1">
+      <c r="AI13" s="1">
         <v>2</v>
       </c>
-      <c r="M13" s="1">
+      <c r="AJ13" s="1">
         <v>3</v>
       </c>
-      <c r="N13" s="1">
-        <v>4</v>
-      </c>
-      <c r="O13" s="1">
-        <v>5</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="AK13" s="1">
         <v>6</v>
       </c>
-      <c r="Q13" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="Q14" s="1"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="S14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1505,22 +3992,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="43" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.5" customWidth="1"/>
-    <col min="9" max="9" width="66.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.5">
+    <row r="1" spans="1:16" ht="19" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +4027,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="14.5">
+    <row r="2" spans="1:16" ht="19" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1563,18 +4050,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="19" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>24</v>
@@ -1583,7 +4070,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="14.5">
+    <row r="4" spans="1:16" ht="43" customHeight="1">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1597,7 +4084,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>35</v>
@@ -1605,7 +4092,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.5">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="43" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1619,14 +4106,14 @@
         <v>2.9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.5">
-      <c r="A6">
+    <row r="6" spans="1:16" ht="43" customHeight="1">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6">
@@ -1639,14 +4126,14 @@
         <v>16.079999999999998</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14.5">
-      <c r="A7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="43" customHeight="1">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1">
@@ -1659,13 +4146,13 @@
         <v>6.5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="14.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="43" customHeight="1">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1679,13 +4166,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="14.5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="43" customHeight="1">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1699,13 +4186,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="14.5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="43" customHeight="1">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1719,33 +4206,33 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="14.5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="43" customHeight="1">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>12</v>
+        <v>15.9</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
-        <v>16</v>
+        <v>11.85</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="14.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="43" customHeight="1">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1759,13 +4246,13 @@
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="14.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="43" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1779,53 +4266,53 @@
         <v>3.3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="14.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="43" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>12</v>
+        <v>2.94</v>
       </c>
       <c r="C14" s="1">
-        <v>8</v>
+        <v>6.24</v>
       </c>
       <c r="D14" s="1">
-        <v>16</v>
+        <v>4.12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="14.5">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="43" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>12</v>
+        <v>15.7</v>
       </c>
       <c r="C15" s="1">
-        <v>8</v>
+        <v>10.8</v>
       </c>
       <c r="D15" s="1">
-        <v>16</v>
+        <v>12.4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="14.5">
+        <v>113</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="43" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1833,129 +4320,648 @@
         <v>12</v>
       </c>
       <c r="C16" s="1">
-        <v>8</v>
+        <v>12.3</v>
       </c>
       <c r="D16" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="14.5">
-      <c r="F17" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="14.5">
-      <c r="F18" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="14.5">
-      <c r="F19" s="2" t="s">
+      <c r="B20" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.5">
       <c r="F20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="14.5">
       <c r="F21" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="20">
-      <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20">
-      <c r="E23" s="1"/>
-      <c r="F23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="20">
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-      <c r="I24" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="20">
-      <c r="I25" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="20">
-      <c r="I27" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" ht="14.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43" customHeight="1">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43" customHeight="1">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="43" customHeight="1">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="43" customHeight="1">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="43" customHeight="1">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="43" customHeight="1">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>26.85</v>
+      </c>
+      <c r="D34" s="1">
+        <v>30.7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="43" customHeight="1">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>26.85</v>
+      </c>
+      <c r="D35" s="1">
+        <v>30.7</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" ht="14.5">
-      <c r="F37" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" ht="14.5">
-      <c r="F38" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" ht="14.5">
-      <c r="F39" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" ht="14.5">
-      <c r="F40" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" ht="14.5">
-      <c r="F41" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" ht="14.5">
-      <c r="F42" s="2" t="s">
-        <v>86</v>
+        <v>117</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="43" customHeight="1">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>32</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" ht="43" customHeight="1">
+      <c r="I53" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" ht="43" customHeight="1">
+      <c r="E55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" ht="43" customHeight="1">
+      <c r="I56" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" ht="43" customHeight="1">
+      <c r="F57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" ht="43" customHeight="1">
+      <c r="F58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9" ht="43" customHeight="1">
+      <c r="F59" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" ht="43" customHeight="1">
+      <c r="F60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9" ht="43" customHeight="1">
+      <c r="F61" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9" ht="43" customHeight="1">
+      <c r="F62" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="14.5">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="14.5">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="14.5">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="14.5">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/UMAWorldConf/配置/建筑生成.xlsx
+++ b/UMAWorldConf/配置/建筑生成.xlsx
@@ -3996,7 +3996,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="43" customHeight="1"/>
@@ -4617,13 +4617,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="1">
-        <v>15</v>
+        <v>6.79</v>
       </c>
       <c r="C31" s="1">
-        <v>15</v>
+        <v>20.9</v>
       </c>
       <c r="D31" s="1">
-        <v>15</v>
+        <v>6.17</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>110</v>
@@ -4637,13 +4637,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>15</v>
+        <v>10.63</v>
       </c>
       <c r="C32" s="1">
-        <v>15</v>
+        <v>23.25</v>
       </c>
       <c r="D32" s="1">
-        <v>15</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>111</v>
@@ -4657,13 +4657,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="1">
-        <v>15</v>
+        <v>6.31</v>
       </c>
       <c r="C33" s="1">
-        <v>15</v>
+        <v>10.1</v>
       </c>
       <c r="D33" s="1">
-        <v>15</v>
+        <v>6.73</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>112</v>
